--- a/data/trans_media/IQ17B_A-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ17B_A-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,6</t>
+          <t>0,21; 0,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,42 +874,42 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,78</t>
+          <t>0,37; 0,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,84</t>
+          <t>0,35; 0,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,78</t>
+          <t>0,29; 0,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,43</t>
+          <t>0,19; 0,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,97</t>
+          <t>0,36; 0,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,7</t>
+          <t>0,3; 0,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,58</t>
+          <t>0,28; 0,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,41</t>
+          <t>0,22; 0,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,68</t>
+          <t>0,38; 0,69</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,32</t>
+          <t>0,2; 0,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,34</t>
+          <t>0,2; 0,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,74</t>
+          <t>0,45; 0,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,25</t>
+          <t>0,15; 0,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,3</t>
+          <t>0,21; 0,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,28</t>
+          <t>0,18; 0,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,3</t>
+          <t>0,22; 0,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,61</t>
+          <t>0,43; 0,6</t>
         </is>
       </c>
     </row>
@@ -1154,32 +1154,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,33</t>
+          <t>0,16; 0,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,52</t>
+          <t>0,24; 0,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,37</t>
+          <t>0,17; 0,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,16</t>
+          <t>0,06; 0,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,3</t>
+          <t>0,17; 0,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,39</t>
+          <t>0,19; 0,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,21</t>
+          <t>0,11; 0,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,43</t>
+          <t>0,25; 0,42</t>
         </is>
       </c>
     </row>
@@ -1289,27 +1289,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,3</t>
+          <t>0,21; 0,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,35</t>
+          <t>0,25; 0,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,66</t>
+          <t>0,44; 0,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,34</t>
+          <t>0,23; 0,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,23</t>
+          <t>0,15; 0,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,3</t>
+          <t>0,23; 0,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,25</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,53</t>
+          <t>0,41; 0,54</t>
         </is>
       </c>
     </row>
